--- a/resumen_estadistico_frisby.xlsx
+++ b/resumen_estadistico_frisby.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>99.59595959595961</v>
+        <v>98.60000000000002</v>
       </c>
       <c r="D2" t="n">
-        <v>127.2785727667841</v>
+        <v>127.0248524160265</v>
       </c>
       <c r="E2" t="n">
         <v>1.000000000006551</v>
       </c>
       <c r="F2" t="n">
-        <v>18.50000000000129</v>
+        <v>18.00000000000042</v>
       </c>
       <c r="G2" t="n">
-        <v>57.99999999999628</v>
+        <v>57.4999999999978</v>
       </c>
       <c r="H2" t="n">
-        <v>124.9999999999987</v>
+        <v>124.9999999999964</v>
       </c>
       <c r="I2" t="n">
         <v>719.9999999999975</v>
       </c>
       <c r="J2" t="n">
-        <v>2.822191378778805</v>
+        <v>2.829074033622335</v>
       </c>
       <c r="K2" t="n">
-        <v>9.937492699976962</v>
+        <v>10.00076246186234</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>91.87878787878782</v>
+        <v>91.63999999999996</v>
       </c>
       <c r="D3" t="n">
-        <v>43.91417248969404</v>
+        <v>43.75702425573778</v>
       </c>
       <c r="E3" t="n">
         <v>38.9999999999965</v>
@@ -544,19 +544,19 @@
         <v>66.00000000000072</v>
       </c>
       <c r="G3" t="n">
-        <v>83.99999999999395</v>
+        <v>83.50000000000026</v>
       </c>
       <c r="H3" t="n">
-        <v>106.9999999999959</v>
+        <v>105.9999999999966</v>
       </c>
       <c r="I3" t="n">
         <v>342.0000000000055</v>
       </c>
       <c r="J3" t="n">
-        <v>2.911357245238745</v>
+        <v>2.927767384804515</v>
       </c>
       <c r="K3" t="n">
-        <v>12.76325621612126</v>
+        <v>12.89274220545711</v>
       </c>
     </row>
   </sheetData>
